--- a/wwwroot/Files/Sample/form4.xlsx
+++ b/wwwroot/Files/Sample/form4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Reference_Aids\Files\Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexk\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10165403-581B-4F70-AAE1-11F0D32AC3BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="-120" windowWidth="28080" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +381,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -659,7 +658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1608,6 +1607,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:H4"/>
+    <mergeCell ref="H7:H9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="J2:J9"/>
     <mergeCell ref="K2:P4"/>
@@ -1624,13 +1630,6 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:H4"/>
-    <mergeCell ref="H7:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/wwwroot/Files/Sample/form4.xlsx
+++ b/wwwroot/Files/Sample/form4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexk\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexK\source\repos\Alex-Krasnov\Reference_Aids_git\wwwroot\Files\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9410445-2011-459E-8B61-31118DC73B3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="-120" windowWidth="28080" windowHeight="16440"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
-  <si>
-    <t>date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Контингент обследованных</t>
   </si>
@@ -239,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +273,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,12 +283,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,9 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -381,7 +370,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:P35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,200 +673,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-    </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-    </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="M5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+    </row>
+    <row r="7" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-    </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-    </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="P8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -931,7 +918,7 @@
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -955,7 +942,7 @@
     </row>
     <row r="12" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -979,7 +966,7 @@
     </row>
     <row r="13" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
@@ -987,23 +974,49 @@
       <c r="C13" s="5">
         <v>108</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4">
         <v>4</v>
@@ -1011,23 +1024,49 @@
       <c r="C14" s="5">
         <v>115</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4">
         <v>5</v>
@@ -1035,23 +1074,49 @@
       <c r="C15" s="5">
         <v>111</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -1075,7 +1140,7 @@
     </row>
     <row r="17" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4">
         <v>7</v>
@@ -1083,23 +1148,49 @@
       <c r="C17" s="7">
         <v>101</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4">
         <v>8</v>
@@ -1107,23 +1198,49 @@
       <c r="C18" s="5">
         <v>102</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4">
         <v>9</v>
@@ -1131,23 +1248,49 @@
       <c r="C19" s="5">
         <v>103</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4">
         <v>10</v>
@@ -1155,23 +1298,49 @@
       <c r="C20" s="5">
         <v>104</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4">
         <v>11</v>
@@ -1179,23 +1348,49 @@
       <c r="C21" s="5">
         <v>105</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4">
         <v>12</v>
@@ -1203,23 +1398,49 @@
       <c r="C22" s="5">
         <v>109</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4">
         <v>13</v>
@@ -1227,23 +1448,49 @@
       <c r="C23" s="5">
         <v>110</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4">
         <v>14</v>
@@ -1251,23 +1498,49 @@
       <c r="C24" s="5">
         <v>112</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>15</v>
@@ -1291,7 +1564,7 @@
     </row>
     <row r="26" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="4">
         <v>16</v>
@@ -1299,23 +1572,49 @@
       <c r="C26" s="5">
         <v>114</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="4">
         <v>17</v>
@@ -1323,23 +1622,49 @@
       <c r="C27" s="5">
         <v>116</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="4">
         <v>18</v>
@@ -1347,23 +1672,49 @@
       <c r="C28" s="5">
         <v>117</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="4">
         <v>19</v>
@@ -1371,23 +1722,49 @@
       <c r="C29" s="5">
         <v>118</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <v>20</v>
@@ -1411,7 +1788,7 @@
     </row>
     <row r="31" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4">
         <v>21</v>
@@ -1419,23 +1796,49 @@
       <c r="C31" s="5">
         <v>121</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4">
         <v>22</v>
@@ -1443,23 +1846,49 @@
       <c r="C32" s="5">
         <v>124</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="4">
         <v>23</v>
@@ -1467,23 +1896,49 @@
       <c r="C33" s="5">
         <v>125</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="4">
         <v>24</v>
@@ -1491,23 +1946,49 @@
       <c r="C34" s="5">
         <v>200</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1">
         <v>25</v>
@@ -1530,90 +2011,83 @@
       <c r="P35" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:H4"/>
-    <mergeCell ref="H7:H9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="J2:J9"/>
     <mergeCell ref="K2:P4"/>
@@ -1630,6 +2104,13 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:H4"/>
+    <mergeCell ref="H7:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
